--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_9_2.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_9_2.xlsx
@@ -478,652 +478,652 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_9_2_19</t>
+          <t>model_9_2_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8102853146408793</v>
+        <v>0.3695088074892304</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6399613047923904</v>
+        <v>-0.1106217635489666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.730445982913664</v>
+        <v>-0.9762232811601388</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7254528014239947</v>
+        <v>-0.578781877285212</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2099582403898239</v>
+        <v>0.6977679133415222</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4356548488140106</v>
+        <v>1.126189827919006</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6302202343940735</v>
+        <v>2.817254781723022</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5272161960601807</v>
+        <v>1.921980738639832</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_9_2_20</t>
+          <t>model_9_2_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8109338623711776</v>
+        <v>0.3790565085579682</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6391586261111167</v>
+        <v>-0.1001175054870564</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7273706530822613</v>
+        <v>-0.9266719344703946</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7234227900380912</v>
+        <v>-0.5468473346388312</v>
       </c>
       <c r="F3" t="n">
-        <v>0.209240511059761</v>
+        <v>0.6872014999389648</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4366261065006256</v>
+        <v>1.115538358688354</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6374104022979736</v>
+        <v>2.746615409851074</v>
       </c>
       <c r="I3" t="n">
-        <v>0.531114399433136</v>
+        <v>1.883104205131531</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_9_2_21</t>
+          <t>model_9_2_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8116382523813868</v>
+        <v>0.3799867995282954</v>
       </c>
       <c r="C4" t="n">
-        <v>0.646072317618506</v>
+        <v>-0.105999169459599</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7200161964154361</v>
+        <v>-0.915921015579485</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7215164691726745</v>
+        <v>-0.5435168624632678</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2084609419107437</v>
+        <v>0.6861719489097595</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4282603859901428</v>
+        <v>1.12150239944458</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6546052098274231</v>
+        <v>2.731289386749268</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5347751379013062</v>
+        <v>1.879049777984619</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_9_2_0</t>
+          <t>model_9_2_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8137649159758962</v>
+        <v>0.3893235075789721</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7164588792444919</v>
+        <v>-0.09959722668754245</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8727396939854214</v>
+        <v>-0.8597958380747621</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8324997086155529</v>
+        <v>-0.5097650533934832</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2061073780059814</v>
+        <v>0.6758389472961426</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3430911004543304</v>
+        <v>1.115010738372803</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2975360155105591</v>
+        <v>2.651278495788574</v>
       </c>
       <c r="I5" t="n">
-        <v>0.321652740240097</v>
+        <v>1.837960720062256</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_9_2_18</t>
+          <t>model_9_2_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8142926802925876</v>
+        <v>0.3896898229213331</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6607336380850719</v>
+        <v>-0.107390708858921</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7379200581464147</v>
+        <v>-0.8509379602131286</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7366648715503019</v>
+        <v>-0.5083196856116836</v>
       </c>
       <c r="F6" t="n">
-        <v>0.205523282289505</v>
+        <v>0.6754335761070251</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4105198681354523</v>
+        <v>1.122913360595703</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6127458214759827</v>
+        <v>2.638651132583618</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5056853890419006</v>
+        <v>1.836201310157776</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_9_2_22</t>
+          <t>model_9_2_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8149315430017898</v>
+        <v>0.394599369548678</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6658097870019511</v>
+        <v>-0.123754865325576</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7140742230253487</v>
+        <v>-0.8027500595354817</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7246968662122801</v>
+        <v>-0.4889830817910152</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2048162370920181</v>
+        <v>0.6700000762939453</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4043776094913483</v>
+        <v>1.139506816864014</v>
       </c>
       <c r="H7" t="n">
-        <v>0.668497622013092</v>
+        <v>2.569955825805664</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5286678075790405</v>
+        <v>1.812661170959473</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_9_2_1</t>
+          <t>model_9_2_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8152734653120676</v>
+        <v>0.394807147247453</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7292308638786045</v>
+        <v>-0.1209613893088219</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8567126023525703</v>
+        <v>-0.8025171828478419</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8275773901317389</v>
+        <v>-0.4876209277160168</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2044378370046616</v>
+        <v>0.6697701811790466</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3276366889476776</v>
+        <v>1.136674404144287</v>
       </c>
       <c r="H8" t="n">
-        <v>0.335007518529892</v>
+        <v>2.569623470306396</v>
       </c>
       <c r="I8" t="n">
-        <v>0.33110511302948</v>
+        <v>1.811002850532532</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_9_2_24</t>
+          <t>model_9_2_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8168103997102092</v>
+        <v>0.4083101509329208</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6779694815954591</v>
+        <v>-0.1429893640532816</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7028462477393984</v>
+        <v>-0.7034792147748266</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7223196044063589</v>
+        <v>-0.4427573905768438</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2027368992567062</v>
+        <v>0.654826283454895</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3896640837192535</v>
+        <v>1.159011125564575</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6947487592697144</v>
+        <v>2.42843770980835</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5332329273223877</v>
+        <v>1.756386876106262</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_9_2_2</t>
+          <t>model_9_2_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8168805935973756</v>
+        <v>0.4162104894360158</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7314484345411933</v>
+        <v>-0.2533067777977969</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8470942398500673</v>
+        <v>-0.5415231811925316</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8228060119819083</v>
+        <v>-0.4021564811833105</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2026592344045639</v>
+        <v>0.6460829377174377</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3249533772468567</v>
+        <v>1.270874857902527</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3574953675270081</v>
+        <v>2.197556972503662</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3402676582336426</v>
+        <v>1.706960082054138</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_9_2_23</t>
+          <t>model_9_2_16</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8170056726102445</v>
+        <v>0.4171246948378288</v>
       </c>
       <c r="C11" t="n">
-        <v>0.678446294486613</v>
+        <v>-0.1776519777552443</v>
       </c>
       <c r="D11" t="n">
-        <v>0.708407611736896</v>
+        <v>-0.6157892313930369</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7256651993482681</v>
+        <v>-0.4097162239708465</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2025208026170731</v>
+        <v>0.6450712084770203</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3890871405601501</v>
+        <v>1.194159626960754</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6817461848258972</v>
+        <v>2.303428888320923</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5268082618713379</v>
+        <v>1.716163277626038</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_9_2_17</t>
+          <t>model_9_2_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8192840298856584</v>
+        <v>0.4178975388947209</v>
       </c>
       <c r="C12" t="n">
-        <v>0.688456738997677</v>
+        <v>-0.3218548100673551</v>
       </c>
       <c r="D12" t="n">
-        <v>0.744887165452504</v>
+        <v>-0.4567354599741673</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7499042057810177</v>
+        <v>-0.3856598886957869</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1999993324279785</v>
+        <v>0.6442158818244934</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3769742846488953</v>
+        <v>1.340383648872375</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5964565873146057</v>
+        <v>2.076685905456543</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4802618026733398</v>
+        <v>1.686877489089966</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_9_2_3</t>
+          <t>model_9_2_0</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8201457381547839</v>
+        <v>0.4313727293114354</v>
       </c>
       <c r="C13" t="n">
-        <v>0.743480182680437</v>
+        <v>0.5331643283309573</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8399575753174406</v>
+        <v>0.85934028293669</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8227311569239533</v>
+        <v>0.7166254150836009</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1990456730127335</v>
+        <v>0.6293028593063354</v>
       </c>
       <c r="G13" t="n">
-        <v>0.310394674539566</v>
+        <v>0.4733794629573822</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3741809725761414</v>
+        <v>0.2005209922790527</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3404114246368408</v>
+        <v>0.3449751436710358</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_9_2_4</t>
+          <t>model_9_2_13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.822343232606483</v>
+        <v>0.4425568157026716</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7631519725615874</v>
+        <v>-0.4315412823431584</v>
       </c>
       <c r="D14" t="n">
-        <v>0.825597160122479</v>
+        <v>-0.2044962957137921</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8210649366261288</v>
+        <v>-0.2950249903333444</v>
       </c>
       <c r="F14" t="n">
-        <v>0.196613684296608</v>
+        <v>0.6169253587722778</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2865914106369019</v>
+        <v>1.451607584953308</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4077557623386383</v>
+        <v>1.717099905014038</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3436110615730286</v>
+        <v>1.576540231704712</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_9_2_11</t>
+          <t>model_9_2_12</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8228964622036896</v>
+        <v>0.4478224952346385</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7176118027868033</v>
+        <v>-0.4686402154567268</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7853909260958805</v>
+        <v>-0.1064846936315609</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7828376199700413</v>
+        <v>-0.2573768615676526</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1960014253854752</v>
+        <v>0.6110978126525879</v>
       </c>
       <c r="G15" t="n">
-        <v>0.34169602394104</v>
+        <v>1.489226698875427</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5017583966255188</v>
+        <v>1.577377080917358</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4170194566249847</v>
+        <v>1.530707955360413</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_9_2_10</t>
+          <t>model_9_2_1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8236393600271401</v>
+        <v>0.4612245651096805</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7299635221265374</v>
+        <v>0.4098655412951309</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7893706573880208</v>
+        <v>0.7747377342177717</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7892383749419064</v>
+        <v>0.6156318690909107</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1951792538166046</v>
+        <v>0.5962656736373901</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3267501592636108</v>
+        <v>0.5984065532684326</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4924536943435669</v>
+        <v>0.3211282789707184</v>
       </c>
       <c r="I16" t="n">
-        <v>0.404727965593338</v>
+        <v>0.4679228663444519</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_9_2_16</t>
+          <t>model_9_2_10</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8238013985306571</v>
+        <v>0.4682376824657087</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7145015263822622</v>
+        <v>-0.4122061538720287</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7515233283901546</v>
+        <v>0.04860288004699442</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7623948023885626</v>
+        <v>-0.1470287389671678</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1949999332427979</v>
+        <v>0.5885042548179626</v>
       </c>
       <c r="G17" t="n">
-        <v>0.345459520816803</v>
+        <v>1.43200159072876</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5809412002563477</v>
+        <v>1.356287956237793</v>
       </c>
       <c r="I17" t="n">
-        <v>0.456275999546051</v>
+        <v>1.396372199058533</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_9_2_5</t>
+          <t>model_9_2_11</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.824121231014441</v>
+        <v>0.4685733937419594</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7701307721608941</v>
+        <v>-0.4150521055123091</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8167030004176703</v>
+        <v>-0.001305962492374135</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8182973813519184</v>
+        <v>-0.1757868094377395</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1946459710597992</v>
+        <v>0.5881325602531433</v>
       </c>
       <c r="G18" t="n">
-        <v>0.278146892786026</v>
+        <v>1.434887409210205</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4285504221916199</v>
+        <v>1.427436828613281</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3489256203174591</v>
+        <v>1.431381821632385</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_9_2_9</t>
+          <t>model_9_2_5</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8245145855395749</v>
+        <v>0.4770748840010981</v>
       </c>
       <c r="C19" t="n">
-        <v>0.743056018982761</v>
+        <v>-0.6785552249647064</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7936014050565696</v>
+        <v>0.6192785891760353</v>
       </c>
       <c r="E19" t="n">
-        <v>0.796029420460114</v>
+        <v>0.04999917295311584</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1942106336355209</v>
+        <v>0.5787240266799927</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3109079301357269</v>
+        <v>1.702084064483643</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4825622141361237</v>
+        <v>0.5427469611167908</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3916870653629303</v>
+        <v>1.156513929367065</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_9_2_6</t>
+          <t>model_9_2_2</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8256486825304681</v>
+        <v>0.4777152792038644</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7722345874267803</v>
+        <v>0.4710855768393517</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8100455318115913</v>
+        <v>0.7731618305924106</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8151851217344247</v>
+        <v>0.6417600922738224</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1929555237293243</v>
+        <v>0.5780153274536133</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2756012380123138</v>
+        <v>0.5363283753395081</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4441156387329102</v>
+        <v>0.32337486743927</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3549021184444427</v>
+        <v>0.4361148476600647</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_9_2_15</t>
+          <t>model_9_2_3</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8269942206238688</v>
+        <v>0.4859424368311136</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7345331008004604</v>
+        <v>0.3431803431843686</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7575283513445557</v>
+        <v>0.6055340807479523</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7725179708947526</v>
+        <v>0.4929828178031755</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1914664059877396</v>
+        <v>0.5689102411270142</v>
       </c>
       <c r="G21" t="n">
-        <v>0.321220874786377</v>
+        <v>0.6660264730453491</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5669013857841492</v>
+        <v>0.5623407959938049</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4368363916873932</v>
+        <v>0.6172336339950562</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_9_2_7</t>
+          <t>model_9_2_9</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8273322448716919</v>
+        <v>0.494209294178147</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7736672120238834</v>
+        <v>-0.3168884535899943</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8046229103776379</v>
+        <v>0.1713427398360524</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8125555838639804</v>
+        <v>-0.03735762101433471</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1910923272371292</v>
+        <v>0.5597612857818604</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2738677263259888</v>
+        <v>1.335347652435303</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4567937850952148</v>
+        <v>1.181313157081604</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3599516749382019</v>
+        <v>1.262860536575317</v>
       </c>
     </row>
     <row r="23">
@@ -1133,121 +1133,121 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8282107876687363</v>
+        <v>0.5125015733478058</v>
       </c>
       <c r="C23" t="n">
-        <v>0.769429232106543</v>
+        <v>-0.2364466407462877</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8002086867363907</v>
+        <v>0.217294714807736</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8086144828176712</v>
+        <v>0.02343745320494239</v>
       </c>
       <c r="F23" t="n">
-        <v>0.190120056271553</v>
+        <v>0.5395171046257019</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2789957523345947</v>
+        <v>1.253778219223022</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4671142995357513</v>
+        <v>1.115805149078369</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3675197958946228</v>
+        <v>1.188849687576294</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_9_2_14</t>
+          <t>model_9_2_4</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8299184398504423</v>
+        <v>0.5144264659964439</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7498063872586818</v>
+        <v>-0.3853943535076529</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7658859224253898</v>
+        <v>0.6677973452548888</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7824027659495365</v>
+        <v>0.2060127544917079</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1882301717996597</v>
+        <v>0.5373868346214294</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3027398288249969</v>
+        <v>1.404813885688782</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5473613142967224</v>
+        <v>0.4735798239707947</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4178544878959656</v>
+        <v>0.9665859341621399</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_9_2_13</t>
+          <t>model_9_2_6</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8352961964240235</v>
+        <v>0.5187547868627813</v>
       </c>
       <c r="C25" t="n">
-        <v>0.772404829393871</v>
+        <v>-0.212201553680553</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7780983054779722</v>
+        <v>0.4462686473691653</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7969373525898121</v>
+        <v>0.1603086173375706</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1822785586118698</v>
+        <v>0.5325966477394104</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2753952443599701</v>
+        <v>1.229193329811096</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5188086032867432</v>
+        <v>0.7893856167793274</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3899435102939606</v>
+        <v>1.022225260734558</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_9_2_12</t>
+          <t>model_9_2_7</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8360740955729091</v>
+        <v>0.5387375338087419</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7802767538900467</v>
+        <v>-0.1528337384252552</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7840769390786888</v>
+        <v>0.3989360722626639</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8029881875545164</v>
+        <v>0.1604052180980393</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1814176738262177</v>
+        <v>0.5104816555976868</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2658700048923492</v>
+        <v>1.168993473052979</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5048304796218872</v>
+        <v>0.8568617701530457</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3783240020275116</v>
+        <v>1.022107601165771</v>
       </c>
     </row>
   </sheetData>
